--- a/documents/problem list.xlsx
+++ b/documents/problem list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bluechry/Projects/problems/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2DFCD-743A-EE48-8AA0-723C64B6AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC96804C-7A06-974E-85E8-F8EA82ECD8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문제 풀이 기록" sheetId="4" r:id="rId1"/>
@@ -1456,17 +1456,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1474,20 +1474,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1597,6 +1583,20 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1733,21 +1733,21 @@
     <tableColumn id="3" xr3:uid="{9C99EB9E-BD3A-4E60-B3BC-A391411B3948}" name="관련 주제" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{C7300158-2D39-474E-B313-59089908E682}" name="난이도" dataDxfId="11"/>
     <tableColumn id="5" xr3:uid="{AD026F02-D806-4FFA-9C31-65B2592272D6}" name="출처" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{F69DC098-E873-0A4A-BFCD-85663D8ED0D2}" name="회고 여부" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{F73770D9-42C6-45FE-99C9-032DB2C1EE98}" name="노트" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{F69DC098-E873-0A4A-BFCD-85663D8ED0D2}" name="회고 여부" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F73770D9-42C6-45FE-99C9-032DB2C1EE98}" name="노트" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86DEF7D2-F75E-4EDF-8C05-53C6E9F0CE65}" name="표3" displayName="표3" ref="A1:D167" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86DEF7D2-F75E-4EDF-8C05-53C6E9F0CE65}" name="표3" displayName="표3" ref="A1:D167" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D167" xr:uid="{86DEF7D2-F75E-4EDF-8C05-53C6E9F0CE65}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{5B54CFD3-A948-4216-B1FC-9EC4B0A9B862}" name="문제 이름" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D65710CE-AE1D-46BA-BE63-AF79A75F437B}" name="분류" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8B396135-4DDE-4273-93DC-225133F40AB6}" name="출처" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4CD90C21-56F0-4A52-99FA-804578C2A2AA}" name="노트" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5B54CFD3-A948-4216-B1FC-9EC4B0A9B862}" name="문제 이름" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D65710CE-AE1D-46BA-BE63-AF79A75F437B}" name="분류" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8B396135-4DDE-4273-93DC-225133F40AB6}" name="출처" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4CD90C21-56F0-4A52-99FA-804578C2A2AA}" name="노트" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2053,7 +2053,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
@@ -2087,7 +2087,7 @@
       <c r="F1" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>346</v>
       </c>
       <c r="H1" s="12" t="s">
@@ -2113,7 +2113,7 @@
       <c r="F2" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>347</v>
       </c>
       <c r="H2" s="9"/>
@@ -2393,7 +2393,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>338</v>
       </c>
       <c r="B2" t="s">
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>332</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
         <v>333</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
         <v>334</v>
       </c>
@@ -2431,7 +2431,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>339</v>
       </c>
       <c r="B6" t="s">
@@ -2442,7 +2442,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" t="s">
         <v>340</v>
       </c>
